--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3097.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3097.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.580874626052213</v>
+        <v>1.240506768226624</v>
       </c>
       <c r="B1">
-        <v>2.572448248731796</v>
+        <v>2.363690853118896</v>
       </c>
       <c r="C1">
-        <v>2.877147142500676</v>
+        <v>3.871894598007202</v>
       </c>
       <c r="D1">
-        <v>3.424379110866222</v>
+        <v>3.141841173171997</v>
       </c>
       <c r="E1">
-        <v>2.857824403088164</v>
+        <v>1.270837426185608</v>
       </c>
     </row>
   </sheetData>
